--- a/trend_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/trend_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.150355523574156</v>
+        <v>0.849644476425844</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9426652655365531</v>
+        <v>0.0573347344634469</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9093533772208841</v>
+        <v>0.09064662277911591</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.325188650375053</v>
+        <v>0.674811349624947</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,734 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0117717593604864</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.10126582278481</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.164556962025316</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0002731862378459</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0004812754236161</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.48351125314476</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.992966056936149</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0253164556962025</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.639240506329114</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-6.50093676814988</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-11.4660062505126</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-2.11249277038751</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-4.98156074187731</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.540051924511655</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0838709677419355</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.793658488275404</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.374193548387097</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.52258064516129</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.987391087986708</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.069620253164557</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.544303797468354</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.0006956642326322</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0013322357444811</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-2.62514804766892</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.984816877328881</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.512658227848101</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0033234758871701</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0060696769434076</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.0010573094971009</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1.38478161965423</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.23139623007276</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0063291139240506</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.341772151898734</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0001790002450379</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0002363169122648</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0006364531349251</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.745834354324921</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hautapu at Papakai Road Bridge</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.869145103905814</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.917721518987342</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.635</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0533102843383188</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.13162569589962</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0291396737662391</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-1.46658278784921</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1840392.992</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5604874.846</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/trend_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.79121675974942</v>
+        <v>0.641521393622377</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0205347390465569</v>
+        <v>0.0094833665401148</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.014704604846584</v>
+        <v>-0.0218707223360338</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0580618468787553</v>
+        <v>0.0442281342323878</v>
       </c>
       <c r="N2" t="n">
-        <v>6.22264819592635</v>
+        <v>2.78922545297495</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.849644476425844</v>
+        <v>0.529544511386084</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.931034482758621</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.835</v>
+        <v>10.805</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0374477644867138</v>
+        <v>0.0066469517743401</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0319661142498353</v>
+        <v>-0.0471223199071094</v>
       </c>
       <c r="M3" t="n">
-        <v>0.106523759061879</v>
+        <v>0.0924386050248876</v>
       </c>
       <c r="N3" t="n">
-        <v>0.345618500108111</v>
+        <v>0.0615173694987521</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.939912352201271</v>
+        <v>0.162606247380942</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.379310344827586</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.011</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0008696428571428</v>
+        <v>0.0003240905057675</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0018536685145534</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0012547976411374</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.90584415584415</v>
+        <v>2.94627732515932</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.819374716640956</v>
+        <v>0.81750133801779</v>
       </c>
       <c r="G5" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.741379310344828</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.6245572609209</v>
+        <v>-8.90853658536585</v>
       </c>
       <c r="L5" t="n">
-        <v>-25.7898375582583</v>
+        <v>-24.1009981584723</v>
       </c>
       <c r="M5" t="n">
-        <v>6.71537545496732</v>
+        <v>7.47140602631722</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.18713105076741</v>
+        <v>-8.09866962305987</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.246403033572468</v>
+        <v>0.6617361427267771</v>
       </c>
       <c r="G6" t="n">
-        <v>0.826923076923077</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H6" t="n">
-        <v>0.442307692307692</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-6.13457887876202e-05</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.702869494489318</v>
+        <v>0.983375811042801</v>
       </c>
       <c r="G7" t="n">
-        <v>0.551724137931034</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="H7" t="n">
         <v>0.0862068965517241</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.995634237896723</v>
+        <v>0.740558313725947</v>
       </c>
       <c r="G8" t="n">
-        <v>0.396551724137931</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="H8" t="n">
-        <v>0.603448275862069</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.018</v>
+        <v>0.0125</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0045063311688311</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.016258369337881</v>
+        <v>-0.002815955927846</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-25.0351731601732</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0573347344634469</v>
+        <v>0.439767609994654</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.649122807017544</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.119999999999999</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0333192130063033</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.06290134493967101</v>
+        <v>-0.041754263194657</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0305516961982476</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.410335135545608</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.975316902624034</v>
+        <v>0.297470994150799</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0689655172413793</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.689655172413793</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0033905063291139</v>
+        <v>0.000167239010989</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0084367671095038</v>
+        <v>-0.0019463804348847</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0003843966204445</v>
+        <v>0.0038705273607039</v>
       </c>
       <c r="N10" t="n">
-        <v>-10.2742616033755</v>
+        <v>0.64322696534235</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8761857489963421</v>
+        <v>0.102558840516703</v>
       </c>
       <c r="G11" t="n">
-        <v>0.172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.396551724137931</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.27</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.558493974512882</v>
+        <v>0.0099865580847723</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.46414984248858</v>
+        <v>-0.0034002692012836</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0249699062306011</v>
       </c>
       <c r="N11" t="n">
-        <v>-11.1698794902576</v>
+        <v>3.69872521658236</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.968796290715647</v>
+        <v>0.0372194743810457</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.586206896551724</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.245</v>
+        <v>0.027</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0117204286778002</v>
+        <v>0.0019973116169544</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0295350404312668</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0024232592309869</v>
+        <v>0.0034478753707787</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.78384843991846</v>
+        <v>7.39745043316472</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.914780664841491</v>
+        <v>0.643788875060667</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.586206896551724</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.027</v>
+        <v>3.71</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0013233695652173</v>
+        <v>-0.0837150706436421</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0036227403773714</v>
+        <v>-0.324450213331054</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.283498878172496</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.90136876006441</v>
+        <v>-2.25647090683671</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.998746768473747</v>
+        <v>0.0002294442643629</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0147058823529412</v>
       </c>
       <c r="H14" t="n">
-        <v>0.948275862068966</v>
+        <v>0.838235294117647</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.98</v>
+        <v>0.415</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.594586998155767</v>
+        <v>-0.0824620848091745</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.09822690215075</v>
+        <v>-0.15564301488293</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.245577738212928</v>
+        <v>-0.0356885669361425</v>
       </c>
       <c r="N14" t="n">
-        <v>-14.939371812959</v>
+        <v>-19.8703818817288</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.29394173048669e-07</v>
+        <v>0.364037235367417</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0136986301369863</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.876712328767123</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.44</v>
+        <v>10.85</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.140480769230769</v>
+        <v>-0.0066469517743401</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.199950098938764</v>
+        <v>-0.0300104157114029</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0895844878760176</v>
+        <v>0.0243889437967551</v>
       </c>
       <c r="N15" t="n">
-        <v>-31.9274475524476</v>
+        <v>-0.0612622283349324</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9418203422953541</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0423728813559322</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.194915254237288</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.09064662277911591</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.846153846153846</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.85</v>
+        <v>0.012</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0199408553230208</v>
+        <v>-0.0002229853479853</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0502126497075527</v>
+        <v>-0.0005461647618838</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002212205482334</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1837866850048</v>
+        <v>-1.85821123321123</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.831648081262977</v>
+        <v>0.921385397469582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0508474576271186</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H17" t="n">
-        <v>0.211864406779661</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.012</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0001380385487528</v>
+        <v>-5.02061855670103</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0004743506493506</v>
+        <v>-10.8709865123054</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.595269695153561</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.15032123960695</v>
+        <v>-4.18384879725086</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,28 +2025,28 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5204097287007859</v>
+        <v>0.520504364137895</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0338983050847458</v>
+        <v>0.807339449541284</v>
       </c>
       <c r="H18" t="n">
-        <v>0.610169491525424</v>
+        <v>0.311926605504587</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>120</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.63692285619033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>5.79782035706696</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.230758333390606</v>
+        <v>0.8651799265003171</v>
       </c>
       <c r="G19" t="n">
-        <v>0.834862385321101</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="H19" t="n">
-        <v>0.284403669724771</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I19" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,19 +2207,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.841316100479311</v>
+        <v>0.0044998705119831</v>
       </c>
       <c r="G20" t="n">
-        <v>0.406779661016949</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="H20" t="n">
-        <v>0.076271186440678</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0015</v>
+        <v>0.0128</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0008738038277511</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0132764581544259</v>
+        <v>0.92652867076796</v>
       </c>
       <c r="G21" t="n">
-        <v>0.423728813559322</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.533898305084746</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0115</v>
+        <v>8.09</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0110625946491672</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.023717532467532</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.13674406241245</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.674811349624947</v>
+        <v>0.07548570520163971</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="H22" t="n">
-        <v>0.508771929824561</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.085000000000001</v>
+        <v>0.0212</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0030693277310923</v>
+        <v>0.0003339437120387</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.008553864168617999</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0166888199471123</v>
+        <v>0.0015881689535625</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0379632372429483</v>
+        <v>1.57520618886208</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0328782922218053</v>
+        <v>0.335620111984783</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09322033898305079</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.559322033898305</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0185</v>
+        <v>0.26</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001003434065934</v>
+        <v>0.0010801296633303</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.002372043789848</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0020047735698469</v>
+        <v>0.0075078047860597</v>
       </c>
       <c r="N23" t="n">
-        <v>5.42396792396792</v>
+        <v>0.41543448589627</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.186574111427251</v>
+        <v>0.151175552708767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09322033898305079</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.26271186440678</v>
+        <v>0.398305084745763</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.0275</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0003908507223113</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0002062394127611</v>
       </c>
       <c r="M24" t="n">
-        <v>0.334409411907842</v>
+        <v>0.0010727797049727</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.42127535385962</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.73768418418324</v>
+        <v>0.15773009649494</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.576271186440678</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.23</v>
+        <v>3.71</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.001335774848155</v>
+        <v>0.0622678947764564</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0033484112890326</v>
+        <v>-0.0616667157175359</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0029548749867765</v>
+        <v>0.200686813186813</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.580771673110887</v>
+        <v>1.67837991311203</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0644833423075363</v>
+        <v>0.0084364528320519</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0941176470588235</v>
       </c>
       <c r="H26" t="n">
-        <v>0.38135593220339</v>
+        <v>0.152941176470588</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005733908948194</v>
+        <v>0.0002393512450851</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0011995073891625</v>
+        <v>0.0004083187650592</v>
       </c>
       <c r="N26" t="n">
-        <v>2.38912872841444</v>
+        <v>2.17592040986536</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0731943375545855</v>
+        <v>0.998230083186796</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0235294117647059</v>
       </c>
       <c r="H27" t="n">
-        <v>0.915254237288136</v>
+        <v>0.635294117647059</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.33</v>
+        <v>130</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0873704375981162</v>
+        <v>-6.50093676814988</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.010073555344595</v>
+        <v>-10.7945256468123</v>
       </c>
       <c r="M27" t="n">
-        <v>0.200686813186813</v>
+        <v>-2.74624060150376</v>
       </c>
       <c r="N27" t="n">
-        <v>2.62373686480829</v>
+        <v>-5.00072059088453</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0117717593604864</v>
+        <v>0.651225810095612</v>
       </c>
       <c r="G28" t="n">
-        <v>0.10126582278481</v>
+        <v>0.491017964071856</v>
       </c>
       <c r="H28" t="n">
-        <v>0.164556962025316</v>
+        <v>0.0778443113772455</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002731862378459</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0004812754236161</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2.48351125314476</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.992966056936149</v>
+        <v>0.334784967235793</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0253164556962025</v>
+        <v>0.365269461077844</v>
       </c>
       <c r="H29" t="n">
-        <v>0.639240506329114</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>130.5</v>
+        <v>0.016</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.50093676814988</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-11.4660062505126</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.11249277038751</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-4.98156074187731</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.540051924511655</v>
+        <v>0.914057801214876</v>
       </c>
       <c r="G30" t="n">
-        <v>0.483870967741935</v>
+        <v>0.0647058823529412</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0838709677419355</v>
+        <v>0.641176470588235</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.002</v>
+        <v>0.028</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-0.0003510033917467</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-0.0008791137978952</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>-1.25358354195268</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.793658488275404</v>
+        <v>0.795231648747582</v>
       </c>
       <c r="G31" t="n">
-        <v>0.374193548387097</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.52258064516129</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.014</v>
+        <v>0.2525</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-0.0015810401265164</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.0037433601358692</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0016433003959037</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0.626154505551054</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.987391087986708</v>
+        <v>0.06394571524995429</v>
       </c>
       <c r="G32" t="n">
-        <v>0.069620253164557</v>
+        <v>0.0058823529411764</v>
       </c>
       <c r="H32" t="n">
-        <v>0.544303797468354</v>
+        <v>0.329411764705882</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0265</v>
+        <v>0.025</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0006956642326322</v>
+        <v>0.0003648851148851</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0013322357444811</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0007768687686755</v>
       </c>
       <c r="N32" t="n">
-        <v>-2.62514804766892</v>
+        <v>1.45954045954046</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.984816877328881</v>
+        <v>0.742729490884071</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.512658227848101</v>
+        <v>0.917647058823529</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.24</v>
+        <v>3.71</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0033234758871701</v>
+        <v>-0.03003897299509</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0060696769434076</v>
+        <v>-0.10159272403107</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0010573094971009</v>
+        <v>0.0474329064158042</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.38478161965423</v>
+        <v>-0.809675821970082</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3449,188 +3449,6 @@
         </is>
       </c>
       <c r="W33" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Hautapu at Papakai Road Bridge</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>15</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.23139623007276</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.0063291139240506</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.341772151898734</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.0001790002450379</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-0.0002363169122648</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.0006364531349251</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.745834354324921</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>1840392.992</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5604874.846</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Hautapu at Papakai Road Bridge</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.869145103905814</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.917721518987342</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.635</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-0.0533102843383188</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-0.13162569589962</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.0291396737662391</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-1.46658278784921</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>1840392.992</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5604874.846</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
+++ b/trend_results/Rivers/HautapuatPapakaiRoadBridge_e6f936f5c2.xlsx
@@ -133,43 +133,43 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -648,37 +648,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.641521393622377</v>
+        <v>0.220464207603095</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.952380952380952</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K2">
-        <v>0.0094833665401148</v>
+        <v>-0.0193253968253968</v>
       </c>
       <c r="L2">
-        <v>-0.0218707223360338</v>
+        <v>-0.0597440442559493</v>
       </c>
       <c r="M2">
-        <v>0.0442281342323878</v>
+        <v>0.023119283614253</v>
       </c>
       <c r="N2">
-        <v>2.78922545297495</v>
+        <v>-5.85618085618086</v>
       </c>
       <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
       </c>
       <c r="Q2">
         <v>1840392.992</v>
@@ -719,13 +719,13 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.529544511386084</v>
+        <v>0.86690383008283</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.913793103448276</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -734,22 +734,22 @@
         <v>10.805</v>
       </c>
       <c r="K3">
-        <v>0.0066469517743401</v>
+        <v>0.09119444893341939</v>
       </c>
       <c r="L3">
-        <v>-0.0471223199071094</v>
+        <v>-0.0201061209411849</v>
       </c>
       <c r="M3">
-        <v>0.0924386050248876</v>
+        <v>0.121287745834599</v>
       </c>
       <c r="N3">
-        <v>0.0615173694987521</v>
+        <v>0.844002303872461</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1840392.992</v>
@@ -790,37 +790,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.162606247380942</v>
+        <v>0.0069856450755181</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.344827586206897</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K4">
-        <v>0.0003240905057675</v>
+        <v>0.0009487012987012</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0002622038765254</v>
       </c>
       <c r="M4">
-        <v>0.0012547976411374</v>
+        <v>0.0015282426778242</v>
       </c>
       <c r="N4">
-        <v>2.94627732515932</v>
+        <v>9.48701298701298</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1840392.992</v>
@@ -861,37 +861,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.81750133801779</v>
+        <v>0.6782830891325961</v>
       </c>
       <c r="G5">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.810344827586207</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K5">
-        <v>-8.90853658536585</v>
+        <v>-5.0458398744113</v>
       </c>
       <c r="L5">
-        <v>-24.1009981584723</v>
+        <v>-22.3230498238984</v>
       </c>
       <c r="M5">
-        <v>7.47140602631722</v>
+        <v>10.6490811366249</v>
       </c>
       <c r="N5">
-        <v>-8.09866962305987</v>
+        <v>-4.38768684731418</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1840392.992</v>
@@ -932,16 +932,16 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.6617361427267771</v>
+        <v>0.346517766884072</v>
       </c>
       <c r="G6">
-        <v>0.777777777777778</v>
+        <v>0.745454545454545</v>
       </c>
       <c r="H6">
-        <v>0.37037037037037</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1840392.992</v>
@@ -1003,13 +1003,13 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>0.983375811042801</v>
+        <v>0.999078473945449</v>
       </c>
       <c r="G7">
-        <v>0.517241379310345</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="H7">
-        <v>0.0862068965517241</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
         <v>45</v>
@@ -1074,25 +1074,25 @@
         <v>38</v>
       </c>
       <c r="F8">
-        <v>0.740558313725947</v>
+        <v>0.621170393269575</v>
       </c>
       <c r="G8">
         <v>0.413793103448276</v>
       </c>
       <c r="H8">
-        <v>0.551724137931034</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0125</v>
+        <v>0.016</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.002815955927846</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
         <v>44</v>
@@ -1142,40 +1142,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>0.439767609994654</v>
+        <v>0.633943184360354</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.631578947368421</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.109999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0054924812030074</v>
       </c>
       <c r="L9">
-        <v>-0.041754263194657</v>
+        <v>-0.0295319609942614</v>
       </c>
       <c r="M9">
-        <v>0.0305516961982476</v>
+        <v>0.0379583694307127</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06797625251246781</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1840392.992</v>
@@ -1213,37 +1213,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.297470994150799</v>
+        <v>0.0082816961719221</v>
       </c>
       <c r="G10">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.741379310344828</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="K10">
-        <v>0.000167239010989</v>
+        <v>0.0026880017737117</v>
       </c>
       <c r="L10">
-        <v>-0.0019463804348847</v>
+        <v>0.0006263442475187</v>
       </c>
       <c r="M10">
-        <v>0.0038705273607039</v>
+        <v>0.0063095507329863</v>
       </c>
       <c r="N10">
-        <v>0.64322696534235</v>
+        <v>9.60000633468473</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>1840392.992</v>
@@ -1284,13 +1284,13 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.102558840516703</v>
+        <v>0.09045971579075381</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.603448275862069</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0.27</v>
       </c>
       <c r="K11">
-        <v>0.0099865580847723</v>
+        <v>0.0158344452124309</v>
       </c>
       <c r="L11">
-        <v>-0.0034002692012836</v>
+        <v>-0.0066497051954885</v>
       </c>
       <c r="M11">
-        <v>0.0249699062306011</v>
+        <v>0.0351201923076923</v>
       </c>
       <c r="N11">
-        <v>3.69872521658236</v>
+        <v>5.86460933793736</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1840392.992</v>
@@ -1349,43 +1349,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0372194743810457</v>
+        <v>0.153683418638517</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.620689655172414</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.027</v>
+        <v>0.0255</v>
       </c>
       <c r="K12">
-        <v>0.0019973116169544</v>
+        <v>0.0010648688046647</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0007289353542231</v>
       </c>
       <c r="M12">
-        <v>0.0034478753707787</v>
+        <v>0.0033957543394753</v>
       </c>
       <c r="N12">
-        <v>7.39745043316472</v>
+        <v>4.17595609672441</v>
       </c>
       <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
         <v>40</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
       </c>
       <c r="Q12">
         <v>1840392.992</v>
@@ -1426,13 +1426,13 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.643788875060667</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9655172413793101</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1441,22 +1441,22 @@
         <v>3.71</v>
       </c>
       <c r="K13">
-        <v>-0.0837150706436421</v>
+        <v>0.257920433375821</v>
       </c>
       <c r="L13">
-        <v>-0.324450213331054</v>
+        <v>-0.328945959474082</v>
       </c>
       <c r="M13">
-        <v>0.283498878172496</v>
+        <v>0.556523204091287</v>
       </c>
       <c r="N13">
-        <v>-2.25647090683671</v>
+        <v>6.9520332446313</v>
       </c>
       <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
         <v>40</v>
-      </c>
-      <c r="P13" t="s">
-        <v>41</v>
       </c>
       <c r="Q13">
         <v>1840392.992</v>
@@ -1497,37 +1497,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0002294442643629</v>
+        <v>0.012649595950071</v>
       </c>
       <c r="G14">
-        <v>0.0147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.838235294117647</v>
+        <v>0.828125</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.415</v>
+        <v>0.345</v>
       </c>
       <c r="K14">
-        <v>-0.0824620848091745</v>
+        <v>-0.0232643312101911</v>
       </c>
       <c r="L14">
-        <v>-0.15564301488293</v>
+        <v>-0.056105895988104</v>
       </c>
       <c r="M14">
-        <v>-0.0356885669361425</v>
+        <v>-0.0034853515182754</v>
       </c>
       <c r="N14">
-        <v>-19.8703818817288</v>
+        <v>-6.74328440875104</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1840392.992</v>
@@ -1568,13 +1568,13 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.364037235367417</v>
+        <v>0.978992180395249</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.794871794871795</v>
+        <v>0.854700854700855</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1583,22 +1583,22 @@
         <v>10.85</v>
       </c>
       <c r="K15">
-        <v>-0.0066469517743401</v>
+        <v>0.0384923887587821</v>
       </c>
       <c r="L15">
-        <v>-0.0300104157114029</v>
+        <v>0.0100007529432682</v>
       </c>
       <c r="M15">
-        <v>0.0243889437967551</v>
+        <v>0.072381467227848</v>
       </c>
       <c r="N15">
-        <v>-0.0612622283349324</v>
+        <v>0.354768559988776</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1840392.992</v>
@@ -1639,37 +1639,37 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.9418203422953541</v>
+        <v>0.9874329840871801</v>
       </c>
       <c r="G16">
         <v>0.0423728813559322</v>
       </c>
       <c r="H16">
-        <v>0.194915254237288</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.012</v>
+        <v>0.0115</v>
       </c>
       <c r="K16">
-        <v>-0.0002229853479853</v>
+        <v>-0.0003836659663865</v>
       </c>
       <c r="L16">
-        <v>-0.0005461647618838</v>
+        <v>-0.0006759114279589</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>-1.85821123321123</v>
+        <v>-3.33622579466569</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1840392.992</v>
@@ -1710,13 +1710,13 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.921385397469582</v>
+        <v>0.868914574464648</v>
       </c>
       <c r="G17">
         <v>0.0338983050847458</v>
       </c>
       <c r="H17">
-        <v>0.635593220338983</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1725,22 +1725,22 @@
         <v>120</v>
       </c>
       <c r="K17">
-        <v>-5.02061855670103</v>
+        <v>-3.99665653495441</v>
       </c>
       <c r="L17">
-        <v>-10.8709865123054</v>
+        <v>-10.2064133754591</v>
       </c>
       <c r="M17">
-        <v>0.595269695153561</v>
+        <v>1.68222527792944</v>
       </c>
       <c r="N17">
-        <v>-4.18384879725086</v>
+        <v>-3.33054711246201</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>1840392.992</v>
@@ -1781,13 +1781,13 @@
         <v>38</v>
       </c>
       <c r="F18">
-        <v>0.520504364137895</v>
+        <v>0.175788220397137</v>
       </c>
       <c r="G18">
         <v>0.807339449541284</v>
       </c>
       <c r="H18">
-        <v>0.311926605504587</v>
+        <v>0.321100917431193</v>
       </c>
       <c r="I18">
         <v>17</v>
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
         <v>40</v>
-      </c>
-      <c r="P18" t="s">
-        <v>41</v>
       </c>
       <c r="Q18">
         <v>1840392.992</v>
@@ -1846,19 +1846,19 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="F19">
-        <v>0.8651799265003171</v>
+        <v>0.996781788269854</v>
       </c>
       <c r="G19">
-        <v>0.457627118644068</v>
+        <v>0.550847457627119</v>
       </c>
       <c r="H19">
-        <v>0.0677966101694915</v>
+        <v>0.0593220338983051</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,10 +1879,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1840392.992</v>
@@ -1923,19 +1923,19 @@
         <v>38</v>
       </c>
       <c r="F20">
-        <v>0.0044998705119831</v>
+        <v>0.167386614686101</v>
       </c>
       <c r="G20">
-        <v>0.389830508474576</v>
+        <v>0.364406779661017</v>
       </c>
       <c r="H20">
-        <v>0.533898305084746</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0128</v>
+        <v>0.018</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1944,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0008738038277511</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
         <v>40</v>
-      </c>
-      <c r="P20" t="s">
-        <v>47</v>
       </c>
       <c r="Q20">
         <v>1840392.992</v>
@@ -1994,13 +1994,13 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.92652867076796</v>
+        <v>0.879700991120925</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.491228070175439</v>
+        <v>0.482456140350877</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2009,22 +2009,22 @@
         <v>8.09</v>
       </c>
       <c r="K21">
-        <v>0.0110625946491672</v>
+        <v>0.008027472527472299</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-0.0029750053762771</v>
       </c>
       <c r="M21">
-        <v>0.023717532467532</v>
+        <v>0.0207455934226591</v>
       </c>
       <c r="N21">
-        <v>0.13674406241245</v>
+        <v>0.0992271016992875</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q21">
         <v>1840392.992</v>
@@ -2062,37 +2062,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.07548570520163971</v>
+        <v>0.0794922223347001</v>
       </c>
       <c r="G22">
         <v>0.09322033898305079</v>
       </c>
       <c r="H22">
-        <v>0.610169491525424</v>
+        <v>0.601694915254237</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.0212</v>
+        <v>0.033</v>
       </c>
       <c r="K22">
-        <v>0.0003339437120387</v>
+        <v>0.0003227410988624</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0015881689535625</v>
+        <v>0.0010328172375824</v>
       </c>
       <c r="N22">
-        <v>1.57520618886208</v>
+        <v>0.9780033298862501</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1840392.992</v>
@@ -2133,37 +2133,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.335620111984783</v>
+        <v>0.702310233891796</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.533898305084746</v>
+        <v>0.466101694915254</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K23">
-        <v>0.0010801296633303</v>
+        <v>-0.001663505749908</v>
       </c>
       <c r="L23">
-        <v>-0.002372043789848</v>
+        <v>-0.0074897470950102</v>
       </c>
       <c r="M23">
-        <v>0.0075078047860597</v>
+        <v>0.0033447802197802</v>
       </c>
       <c r="N23">
-        <v>0.41543448589627</v>
+        <v>-0.6161132407066811</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q23">
         <v>1840392.992</v>
@@ -2204,34 +2204,34 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.151175552708767</v>
+        <v>0.759090352848656</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.398305084745763</v>
+        <v>0.415254237288136</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0275</v>
+        <v>0.029</v>
       </c>
       <c r="K24">
-        <v>0.0003908507223113</v>
+        <v>-0.000234887459807</v>
       </c>
       <c r="L24">
-        <v>-0.0002062394127611</v>
+        <v>-0.0008942642576497001</v>
       </c>
       <c r="M24">
-        <v>0.0010727797049727</v>
+        <v>0.000340936252189</v>
       </c>
       <c r="N24">
-        <v>1.42127535385962</v>
+        <v>-0.809956757955428</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
         <v>43</v>
@@ -2275,37 +2275,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.15773009649494</v>
+        <v>0.614275954692738</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.932203389830508</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.71</v>
+        <v>3.85</v>
       </c>
       <c r="K25">
-        <v>0.0622678947764564</v>
+        <v>-0.0295898502182751</v>
       </c>
       <c r="L25">
-        <v>-0.0616667157175359</v>
+        <v>-0.148579049658309</v>
       </c>
       <c r="M25">
-        <v>0.200686813186813</v>
+        <v>0.103957307060755</v>
       </c>
       <c r="N25">
-        <v>1.67837991311203</v>
+        <v>-0.7685675381370159</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1840392.992</v>
@@ -2346,13 +2346,13 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.0084364528320519</v>
+        <v>0.0754692444612845</v>
       </c>
       <c r="G26">
-        <v>0.0941176470588235</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H26">
-        <v>0.152941176470588</v>
+        <v>0.146892655367232</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2361,19 +2361,19 @@
         <v>0.011</v>
       </c>
       <c r="K26">
-        <v>0.0002393512450851</v>
+        <v>0.0001086895897942</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.0004083187650592</v>
+        <v>0.0002888947776721</v>
       </c>
       <c r="N26">
-        <v>2.17592040986536</v>
+        <v>0.9880871799476449</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
         <v>47</v>
@@ -2417,13 +2417,13 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.998230083186796</v>
+        <v>0.993225823899366</v>
       </c>
       <c r="G27">
-        <v>0.0235294117647059</v>
+        <v>0.0225988700564972</v>
       </c>
       <c r="H27">
-        <v>0.635294117647059</v>
+        <v>0.689265536723164</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2432,22 +2432,22 @@
         <v>130</v>
       </c>
       <c r="K27">
-        <v>-6.50093676814988</v>
+        <v>-4.99145941418375</v>
       </c>
       <c r="L27">
-        <v>-10.7945256468123</v>
+        <v>-9.22895281889037</v>
       </c>
       <c r="M27">
-        <v>-2.74624060150376</v>
+        <v>-1.54561849889804</v>
       </c>
       <c r="N27">
-        <v>-5.00072059088453</v>
+        <v>-3.83958416475673</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1840392.992</v>
@@ -2488,19 +2488,19 @@
         <v>38</v>
       </c>
       <c r="F28">
-        <v>0.651225810095612</v>
+        <v>0.929185520288723</v>
       </c>
       <c r="G28">
-        <v>0.491017964071856</v>
+        <v>0.514124293785311</v>
       </c>
       <c r="H28">
-        <v>0.0778443113772455</v>
+        <v>0.07344632768361579</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1840392.992</v>
@@ -2559,13 +2559,13 @@
         <v>38</v>
       </c>
       <c r="F29">
-        <v>0.334784967235793</v>
+        <v>0.254787386248629</v>
       </c>
       <c r="G29">
-        <v>0.365269461077844</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="H29">
-        <v>0.514970059880239</v>
+        <v>0.502824858757062</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2586,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" t="s">
         <v>40</v>
-      </c>
-      <c r="P29" t="s">
-        <v>41</v>
       </c>
       <c r="Q29">
         <v>1840392.992</v>
@@ -2627,16 +2627,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0.914057801214876</v>
+        <v>0.655039226249318</v>
       </c>
       <c r="G30">
-        <v>0.0647058823529412</v>
+        <v>0.0621468926553672</v>
       </c>
       <c r="H30">
-        <v>0.641176470588235</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2645,22 +2645,22 @@
         <v>0.028</v>
       </c>
       <c r="K30">
-        <v>-0.0003510033917467</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.0008791137978952</v>
+        <v>-0.0005927535808691</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.0003119970698254</v>
       </c>
       <c r="N30">
-        <v>-1.25358354195268</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1840392.992</v>
@@ -2701,34 +2701,34 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.795231648747582</v>
+        <v>0.620909630009455</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.488235294117647</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.2525</v>
+        <v>0.26</v>
       </c>
       <c r="K31">
-        <v>-0.0015810401265164</v>
+        <v>-7.14774951076322E-05</v>
       </c>
       <c r="L31">
-        <v>-0.0037433601358692</v>
+        <v>-0.0029915963367454</v>
       </c>
       <c r="M31">
-        <v>0.0016433003959037</v>
+        <v>0.0025085851648351</v>
       </c>
       <c r="N31">
-        <v>-0.626154505551054</v>
+        <v>-0.0274913442721662</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
         <v>44</v>
@@ -2766,43 +2766,43 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.06394571524995429</v>
+        <v>0.141880691740042</v>
       </c>
       <c r="G32">
-        <v>0.0058823529411764</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.329411764705882</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="K32">
-        <v>0.0003648851148851</v>
+        <v>0.0002499575869038</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-0.0001113933951394</v>
       </c>
       <c r="M32">
-        <v>0.0007768687686755</v>
+        <v>0.0006256692704093</v>
       </c>
       <c r="N32">
-        <v>1.45954045954046</v>
+        <v>1.04148994543258</v>
       </c>
       <c r="O32" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" t="s">
         <v>40</v>
-      </c>
-      <c r="P32" t="s">
-        <v>50</v>
       </c>
       <c r="Q32">
         <v>1840392.992</v>
@@ -2843,37 +2843,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.742729490884071</v>
+        <v>0.700735181408054</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.917647058823529</v>
+        <v>0.9209039548022599</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>3.71</v>
+        <v>3.78</v>
       </c>
       <c r="K33">
-        <v>-0.03003897299509</v>
+        <v>-0.0234267783040591</v>
       </c>
       <c r="L33">
-        <v>-0.10159272403107</v>
+        <v>-0.100048369156229</v>
       </c>
       <c r="M33">
-        <v>0.0474329064158042</v>
+        <v>0.0501717032967034</v>
       </c>
       <c r="N33">
-        <v>-0.809675821970082</v>
+        <v>-0.619756039789924</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q33">
         <v>1840392.992</v>
